--- a/ConstructionCalculator.Business.Test/TestResource/ConstructionValue.xlsx
+++ b/ConstructionCalculator.Business.Test/TestResource/ConstructionValue.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Construction Calculator\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>钢筋混凝土</t>
   </si>
@@ -54,17 +54,21 @@
   </si>
   <si>
     <t>彩钢瓦大棚</t>
+  </si>
+  <si>
+    <t>无结构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,18 +76,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -152,11 +166,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -176,9 +219,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="26.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +582,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -562,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -594,7 +646,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="27.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -626,7 +678,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -658,7 +710,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -690,7 +742,38 @@
         <v>1.19</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ConstructionCalculator.Business.Test/TestResource/ConstructionValue.xlsx
+++ b/ConstructionCalculator.Business.Test/TestResource/ConstructionValue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Construction Calculator\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssu2\Documents\GitHub\ConstructionCalculator\ConstructionCalculator.Business.Test\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +94,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,7 +230,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,9 +548,9 @@
       <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" thickBot="1">
+    <row r="1" spans="1:10" ht="29.4" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27.75" thickBot="1">
+    <row r="4" spans="1:10" ht="29.4" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
